--- a/Water/Stagnation/stagnation_master.xlsx
+++ b/Water/Stagnation/stagnation_master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Components</t>
   </si>
@@ -156,15 +156,6 @@
     <t>Place the box in a visible place.</t>
   </si>
   <si>
-    <t>To check the working of the LED, upload the code attached.</t>
-  </si>
-  <si>
-    <t>Upload the final code</t>
-  </si>
-  <si>
-    <t>Final Code</t>
-  </si>
-  <si>
     <t>NewPing</t>
   </si>
   <si>
@@ -174,9 +165,6 @@
     <t>Repeat the above step using D6 for the green pin.</t>
   </si>
   <si>
-    <t>To check the working of the sensor install the library &lt;NewPing&gt; and upload the code attached.</t>
-  </si>
-  <si>
     <t>Attach the ultrasonic sensor near the edge of the structure.</t>
   </si>
   <si>
@@ -184,6 +172,24 @@
   </si>
   <si>
     <t>Note that the maximum distance must be adjusted to avoid errors.</t>
+  </si>
+  <si>
+    <t>To check the working of the sensor install the library &lt;NewPing&gt; and upload code001.</t>
+  </si>
+  <si>
+    <t>Code001</t>
+  </si>
+  <si>
+    <t>To check the working of the LED, upload code002.</t>
+  </si>
+  <si>
+    <t>Code002</t>
+  </si>
+  <si>
+    <t>Upload code003</t>
+  </si>
+  <si>
+    <t>Code003</t>
   </si>
 </sst>
 </file>
@@ -596,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,10 +623,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -876,12 +882,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -912,15 +918,15 @@
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,10 +943,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -956,10 +962,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
